--- a/mosip_master/xlsx/registration_center.xlsx
+++ b/mosip_master/xlsx/registration_center.xlsx
@@ -508,7 +508,7 @@
     <t xml:space="preserve">ಕೇಂದ್ರ ಸಿಡಿ ತೈಬಿ</t>
   </si>
   <si>
-    <t xml:space="preserve"> ರಬತ್ ರಸ್ತೆ</t>
+    <t xml:space="preserve">ರಬತ್ ರಸ್ತೆ</t>
   </si>
   <si>
     <t xml:space="preserve">ಸಿಡಿ ತೈಬಿ</t>
@@ -535,7 +535,7 @@
     <t xml:space="preserve">ಫ್ರೆಂಚ್ ಅವೆನ್ಯೂ</t>
   </si>
   <si>
-    <t xml:space="preserve"> ರಬತ್</t>
+    <t xml:space="preserve">ರಬತ್</t>
   </si>
   <si>
     <t xml:space="preserve">ರಾಬಿನ್ ಬ್ಯಾಂಕ್ಸ್</t>
@@ -1074,11 +1074,11 @@
   </sheetPr>
   <dimension ref="A1:W81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L81" activeCellId="0" sqref="L81"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E40" activeCellId="0" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.39"/>

--- a/mosip_master/xlsx/registration_center.xlsx
+++ b/mosip_master/xlsx/registration_center.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\MASTER DATA\Master DAta Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\master Data\Master DAta Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{899FA878-E994-4B93-AE1B-1AC7EDEC4B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A8824D-99A0-4EF3-9F77-4388B21A3948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ED2DB565-78FF-4155-97F0-5EBCB5259144}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{ED2DB565-78FF-4155-97F0-5EBCB5259144}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1965,7 +1965,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2014,17 +2014,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2361,8 +2358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA92A3FA-E478-4F31-8A14-E51848C96E36}">
   <dimension ref="A1:AE160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1"/>
@@ -2370,31 +2367,31 @@
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="24" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="23" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.54296875" style="23" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" style="22" customWidth="1"/>
+    <col min="12" max="12" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="24.75" customHeight="1">
@@ -2425,10 +2422,10 @@
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="4" t="s">
         <v>502</v>
       </c>
       <c r="L1" s="4" t="s">
@@ -2519,7 +2516,7 @@
       <c r="J2" s="20" t="s">
         <v>503</v>
       </c>
-      <c r="K2" s="22"/>
+      <c r="K2" s="21"/>
       <c r="L2" s="3">
         <v>4</v>
       </c>
@@ -2602,7 +2599,7 @@
       <c r="J3" s="20" t="s">
         <v>504</v>
       </c>
-      <c r="K3" s="22"/>
+      <c r="K3" s="21"/>
       <c r="L3" s="3">
         <v>4</v>
       </c>
@@ -2685,7 +2682,7 @@
       <c r="J4" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="K4" s="22"/>
+      <c r="K4" s="21"/>
       <c r="L4" s="3">
         <v>4</v>
       </c>
@@ -2768,7 +2765,7 @@
       <c r="J5" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="K5" s="22"/>
+      <c r="K5" s="21"/>
       <c r="L5" s="3">
         <v>4</v>
       </c>
@@ -2851,7 +2848,7 @@
       <c r="J6" s="20" t="s">
         <v>507</v>
       </c>
-      <c r="K6" s="22"/>
+      <c r="K6" s="21"/>
       <c r="L6" s="3">
         <v>4</v>
       </c>
@@ -2934,7 +2931,7 @@
       <c r="J7" s="20" t="s">
         <v>508</v>
       </c>
-      <c r="K7" s="22"/>
+      <c r="K7" s="21"/>
       <c r="L7" s="3">
         <v>4</v>
       </c>
@@ -3017,7 +3014,7 @@
       <c r="J8" s="20" t="s">
         <v>509</v>
       </c>
-      <c r="K8" s="22"/>
+      <c r="K8" s="21"/>
       <c r="L8" s="3">
         <v>4</v>
       </c>
@@ -3100,7 +3097,7 @@
       <c r="J9" s="20" t="s">
         <v>510</v>
       </c>
-      <c r="K9" s="22"/>
+      <c r="K9" s="21"/>
       <c r="L9" s="3">
         <v>4</v>
       </c>
@@ -3183,7 +3180,7 @@
       <c r="J10" s="20" t="s">
         <v>511</v>
       </c>
-      <c r="K10" s="22"/>
+      <c r="K10" s="21"/>
       <c r="L10" s="3">
         <v>4</v>
       </c>
@@ -3266,7 +3263,7 @@
       <c r="J11" s="20" t="s">
         <v>512</v>
       </c>
-      <c r="K11" s="22"/>
+      <c r="K11" s="21"/>
       <c r="L11" s="3">
         <v>4</v>
       </c>
@@ -3349,7 +3346,7 @@
       <c r="J12" s="20" t="s">
         <v>512</v>
       </c>
-      <c r="K12" s="22"/>
+      <c r="K12" s="21"/>
       <c r="L12" s="3">
         <v>5</v>
       </c>
@@ -3432,7 +3429,7 @@
       <c r="J13" s="20" t="s">
         <v>513</v>
       </c>
-      <c r="K13" s="22"/>
+      <c r="K13" s="21"/>
       <c r="L13" s="3">
         <v>4</v>
       </c>
@@ -3515,7 +3512,7 @@
       <c r="J14" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="K14" s="22"/>
+      <c r="K14" s="21"/>
       <c r="L14" s="3">
         <v>4</v>
       </c>
@@ -3598,7 +3595,7 @@
       <c r="J15" s="20" t="s">
         <v>515</v>
       </c>
-      <c r="K15" s="22"/>
+      <c r="K15" s="21"/>
       <c r="L15" s="3">
         <v>4</v>
       </c>
@@ -3681,7 +3678,7 @@
       <c r="J16" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K16" s="22"/>
+      <c r="K16" s="21"/>
       <c r="L16" s="3">
         <v>4</v>
       </c>
@@ -3764,7 +3761,7 @@
       <c r="J17" s="20" t="s">
         <v>517</v>
       </c>
-      <c r="K17" s="22"/>
+      <c r="K17" s="21"/>
       <c r="L17" s="3">
         <v>4</v>
       </c>
@@ -3847,7 +3844,7 @@
       <c r="J18" s="20" t="s">
         <v>518</v>
       </c>
-      <c r="K18" s="22"/>
+      <c r="K18" s="21"/>
       <c r="L18" s="3">
         <v>4</v>
       </c>
@@ -3930,7 +3927,7 @@
       <c r="J19" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K19" s="22"/>
+      <c r="K19" s="21"/>
       <c r="L19" s="3">
         <v>4</v>
       </c>
@@ -4013,7 +4010,7 @@
       <c r="J20" s="20" t="s">
         <v>519</v>
       </c>
-      <c r="K20" s="22"/>
+      <c r="K20" s="21"/>
       <c r="L20" s="3">
         <v>4</v>
       </c>
@@ -4096,7 +4093,7 @@
       <c r="J21" s="20" t="s">
         <v>520</v>
       </c>
-      <c r="K21" s="22"/>
+      <c r="K21" s="21"/>
       <c r="L21" s="3">
         <v>4</v>
       </c>
@@ -4179,7 +4176,7 @@
       <c r="J22" s="20" t="s">
         <v>521</v>
       </c>
-      <c r="K22" s="22"/>
+      <c r="K22" s="21"/>
       <c r="L22" s="3">
         <v>4</v>
       </c>
@@ -4262,7 +4259,7 @@
       <c r="J23" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="K23" s="22"/>
+      <c r="K23" s="21"/>
       <c r="L23" s="3">
         <v>4</v>
       </c>
@@ -4345,7 +4342,7 @@
       <c r="J24" s="20" t="s">
         <v>523</v>
       </c>
-      <c r="K24" s="22"/>
+      <c r="K24" s="21"/>
       <c r="L24" s="3">
         <v>4</v>
       </c>
@@ -4426,7 +4423,7 @@
       <c r="J25" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K25" s="22"/>
+      <c r="K25" s="21"/>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
@@ -4481,7 +4478,7 @@
       <c r="J26" s="20" t="s">
         <v>524</v>
       </c>
-      <c r="K26" s="22"/>
+      <c r="K26" s="21"/>
       <c r="L26" s="3">
         <v>4</v>
       </c>
@@ -4564,7 +4561,7 @@
       <c r="J27" s="20" t="s">
         <v>525</v>
       </c>
-      <c r="K27" s="22"/>
+      <c r="K27" s="21"/>
       <c r="L27" s="3">
         <v>4</v>
       </c>
@@ -4647,7 +4644,7 @@
       <c r="J28" s="20" t="s">
         <v>526</v>
       </c>
-      <c r="K28" s="22"/>
+      <c r="K28" s="21"/>
       <c r="L28" s="3">
         <v>4</v>
       </c>
@@ -4730,7 +4727,7 @@
       <c r="J29" s="20" t="s">
         <v>527</v>
       </c>
-      <c r="K29" s="22"/>
+      <c r="K29" s="21"/>
       <c r="L29" s="3">
         <v>4</v>
       </c>
@@ -4813,7 +4810,7 @@
       <c r="J30" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K30" s="22"/>
+      <c r="K30" s="21"/>
       <c r="L30" s="3">
         <v>4</v>
       </c>
@@ -4896,7 +4893,7 @@
       <c r="J31" s="20" t="s">
         <v>528</v>
       </c>
-      <c r="K31" s="22"/>
+      <c r="K31" s="21"/>
       <c r="L31" s="3">
         <v>4</v>
       </c>
@@ -4979,7 +4976,7 @@
       <c r="J32" s="20" t="s">
         <v>529</v>
       </c>
-      <c r="K32" s="22"/>
+      <c r="K32" s="21"/>
       <c r="L32" s="3">
         <v>4</v>
       </c>
@@ -5062,7 +5059,7 @@
       <c r="J33" s="20" t="s">
         <v>530</v>
       </c>
-      <c r="K33" s="22"/>
+      <c r="K33" s="21"/>
       <c r="L33" s="3">
         <v>6</v>
       </c>
@@ -5145,7 +5142,7 @@
       <c r="J34" s="20" t="s">
         <v>531</v>
       </c>
-      <c r="K34" s="22"/>
+      <c r="K34" s="21"/>
       <c r="L34" s="3">
         <v>4</v>
       </c>
@@ -5228,7 +5225,7 @@
       <c r="J35" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K35" s="22"/>
+      <c r="K35" s="21"/>
       <c r="L35" s="3">
         <v>7</v>
       </c>
@@ -5311,7 +5308,7 @@
       <c r="J36" s="20" t="s">
         <v>532</v>
       </c>
-      <c r="K36" s="22"/>
+      <c r="K36" s="21"/>
       <c r="L36" s="3">
         <v>5</v>
       </c>
@@ -5392,7 +5389,7 @@
       <c r="J37" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K37" s="22"/>
+      <c r="K37" s="21"/>
       <c r="L37" s="3">
         <v>8</v>
       </c>
@@ -5475,7 +5472,7 @@
       <c r="J38" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="K38" s="22"/>
+      <c r="K38" s="21"/>
       <c r="L38" s="3">
         <v>4</v>
       </c>
@@ -5558,7 +5555,7 @@
       <c r="J39" s="20" t="s">
         <v>534</v>
       </c>
-      <c r="K39" s="22"/>
+      <c r="K39" s="21"/>
       <c r="L39" s="3">
         <v>4</v>
       </c>
@@ -5639,7 +5636,7 @@
       <c r="J40" s="20" t="s">
         <v>534</v>
       </c>
-      <c r="K40" s="22"/>
+      <c r="K40" s="21"/>
       <c r="L40" s="3">
         <v>10</v>
       </c>
@@ -5722,7 +5719,7 @@
       <c r="J41" s="20" t="s">
         <v>535</v>
       </c>
-      <c r="K41" s="22"/>
+      <c r="K41" s="21"/>
       <c r="L41" s="3">
         <v>4</v>
       </c>
@@ -5805,7 +5802,7 @@
       <c r="J42" s="20" t="s">
         <v>535</v>
       </c>
-      <c r="K42" s="22"/>
+      <c r="K42" s="21"/>
       <c r="L42" s="3">
         <v>11</v>
       </c>
@@ -5888,7 +5885,7 @@
       <c r="J43" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K43" s="22"/>
+      <c r="K43" s="21"/>
       <c r="L43" s="3">
         <v>4</v>
       </c>
@@ -5971,7 +5968,7 @@
       <c r="J44" s="20" t="s">
         <v>536</v>
       </c>
-      <c r="K44" s="22"/>
+      <c r="K44" s="21"/>
       <c r="L44" s="3">
         <v>4</v>
       </c>
@@ -6054,7 +6051,7 @@
       <c r="J45" s="20" t="s">
         <v>537</v>
       </c>
-      <c r="K45" s="22"/>
+      <c r="K45" s="21"/>
       <c r="L45" s="3">
         <v>4</v>
       </c>
@@ -6137,7 +6134,7 @@
       <c r="J46" s="20" t="s">
         <v>538</v>
       </c>
-      <c r="K46" s="22"/>
+      <c r="K46" s="21"/>
       <c r="L46" s="3">
         <v>4</v>
       </c>
@@ -6220,7 +6217,7 @@
       <c r="J47" s="20" t="s">
         <v>538</v>
       </c>
-      <c r="K47" s="22"/>
+      <c r="K47" s="21"/>
       <c r="L47" s="3">
         <v>12</v>
       </c>
@@ -6303,7 +6300,7 @@
       <c r="J48" s="20" t="s">
         <v>539</v>
       </c>
-      <c r="K48" s="22"/>
+      <c r="K48" s="21"/>
       <c r="L48" s="3">
         <v>4</v>
       </c>
@@ -6386,7 +6383,7 @@
       <c r="J49" s="20" t="s">
         <v>540</v>
       </c>
-      <c r="K49" s="22"/>
+      <c r="K49" s="21"/>
       <c r="L49" s="3">
         <v>4</v>
       </c>
@@ -6469,7 +6466,7 @@
       <c r="J50" s="20" t="s">
         <v>541</v>
       </c>
-      <c r="K50" s="22"/>
+      <c r="K50" s="21"/>
       <c r="L50" s="3">
         <v>4</v>
       </c>
@@ -6552,7 +6549,7 @@
       <c r="J51" s="20" t="s">
         <v>542</v>
       </c>
-      <c r="K51" s="22"/>
+      <c r="K51" s="21"/>
       <c r="L51" s="3">
         <v>4</v>
       </c>
@@ -6635,7 +6632,7 @@
       <c r="J52" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K52" s="22"/>
+      <c r="K52" s="21"/>
       <c r="L52" s="3">
         <v>4</v>
       </c>
@@ -6718,7 +6715,7 @@
       <c r="J53" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K53" s="22"/>
+      <c r="K53" s="21"/>
       <c r="L53" s="3">
         <v>4</v>
       </c>
@@ -6801,7 +6798,7 @@
       <c r="J54" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K54" s="22"/>
+      <c r="K54" s="21"/>
       <c r="L54" s="3">
         <v>4</v>
       </c>
@@ -6884,7 +6881,7 @@
       <c r="J55" s="20" t="s">
         <v>543</v>
       </c>
-      <c r="K55" s="22"/>
+      <c r="K55" s="21"/>
       <c r="L55" s="3">
         <v>4</v>
       </c>
@@ -6967,7 +6964,7 @@
       <c r="J56" s="20" t="s">
         <v>544</v>
       </c>
-      <c r="K56" s="22"/>
+      <c r="K56" s="21"/>
       <c r="L56" s="3">
         <v>4</v>
       </c>
@@ -7050,7 +7047,7 @@
       <c r="J57" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K57" s="22"/>
+      <c r="K57" s="21"/>
       <c r="L57" s="3">
         <v>4</v>
       </c>
@@ -7133,7 +7130,7 @@
       <c r="J58" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K58" s="22"/>
+      <c r="K58" s="21"/>
       <c r="L58" s="3">
         <v>4</v>
       </c>
@@ -7216,7 +7213,7 @@
       <c r="J59" s="20" t="s">
         <v>545</v>
       </c>
-      <c r="K59" s="22"/>
+      <c r="K59" s="21"/>
       <c r="L59" s="3">
         <v>4</v>
       </c>
@@ -7299,7 +7296,7 @@
       <c r="J60" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K60" s="22"/>
+      <c r="K60" s="21"/>
       <c r="L60" s="3">
         <v>4</v>
       </c>
@@ -7382,7 +7379,7 @@
       <c r="J61" s="20" t="s">
         <v>546</v>
       </c>
-      <c r="K61" s="22"/>
+      <c r="K61" s="21"/>
       <c r="L61" s="3">
         <v>4</v>
       </c>
@@ -7465,7 +7462,7 @@
       <c r="J62" s="20" t="s">
         <v>547</v>
       </c>
-      <c r="K62" s="22"/>
+      <c r="K62" s="21"/>
       <c r="L62" s="3">
         <v>4</v>
       </c>
@@ -7548,7 +7545,7 @@
       <c r="J63" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K63" s="22"/>
+      <c r="K63" s="21"/>
       <c r="L63" s="3">
         <v>4</v>
       </c>
@@ -7631,7 +7628,7 @@
       <c r="J64" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K64" s="22"/>
+      <c r="K64" s="21"/>
       <c r="L64" s="3">
         <v>4</v>
       </c>
@@ -7714,7 +7711,7 @@
       <c r="J65" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K65" s="22"/>
+      <c r="K65" s="21"/>
       <c r="L65" s="3">
         <v>4</v>
       </c>
@@ -7797,7 +7794,7 @@
       <c r="J66" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K66" s="22"/>
+      <c r="K66" s="21"/>
       <c r="L66" s="3">
         <v>4</v>
       </c>
@@ -7880,7 +7877,7 @@
       <c r="J67" s="20" t="s">
         <v>548</v>
       </c>
-      <c r="K67" s="22"/>
+      <c r="K67" s="21"/>
       <c r="L67" s="3">
         <v>4</v>
       </c>
@@ -7963,7 +7960,7 @@
       <c r="J68" s="20" t="s">
         <v>549</v>
       </c>
-      <c r="K68" s="22"/>
+      <c r="K68" s="21"/>
       <c r="L68" s="3">
         <v>7</v>
       </c>
@@ -8044,7 +8041,7 @@
       <c r="J69" s="20" t="s">
         <v>550</v>
       </c>
-      <c r="K69" s="22"/>
+      <c r="K69" s="21"/>
       <c r="L69" s="3">
         <v>4</v>
       </c>
@@ -8127,7 +8124,7 @@
       <c r="J70" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K70" s="22"/>
+      <c r="K70" s="21"/>
       <c r="L70" s="3">
         <v>4</v>
       </c>
@@ -8208,7 +8205,7 @@
       <c r="J71" s="20" t="s">
         <v>540</v>
       </c>
-      <c r="K71" s="22"/>
+      <c r="K71" s="21"/>
       <c r="L71" s="3">
         <v>4</v>
       </c>
@@ -8291,7 +8288,7 @@
       <c r="J72" s="20" t="s">
         <v>551</v>
       </c>
-      <c r="K72" s="22"/>
+      <c r="K72" s="21"/>
       <c r="L72" s="3">
         <v>4</v>
       </c>
@@ -8372,7 +8369,7 @@
       <c r="J73" s="20" t="s">
         <v>552</v>
       </c>
-      <c r="K73" s="22"/>
+      <c r="K73" s="21"/>
       <c r="L73" s="3">
         <v>4</v>
       </c>
@@ -8455,7 +8452,7 @@
       <c r="J74" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K74" s="22"/>
+      <c r="K74" s="21"/>
       <c r="L74" s="3">
         <v>4</v>
       </c>
@@ -8538,7 +8535,7 @@
       <c r="J75" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K75" s="22"/>
+      <c r="K75" s="21"/>
       <c r="L75" s="3">
         <v>4</v>
       </c>
@@ -8621,7 +8618,7 @@
       <c r="J76" s="20" t="s">
         <v>553</v>
       </c>
-      <c r="K76" s="22"/>
+      <c r="K76" s="21"/>
       <c r="L76" s="3">
         <v>4</v>
       </c>
@@ -8704,7 +8701,7 @@
       <c r="J77" s="20" t="s">
         <v>554</v>
       </c>
-      <c r="K77" s="22"/>
+      <c r="K77" s="21"/>
       <c r="L77" s="3">
         <v>4</v>
       </c>
@@ -8787,7 +8784,7 @@
       <c r="J78" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K78" s="22"/>
+      <c r="K78" s="21"/>
       <c r="L78" s="3">
         <v>4</v>
       </c>
@@ -8870,7 +8867,7 @@
       <c r="J79" s="20" t="s">
         <v>555</v>
       </c>
-      <c r="K79" s="22"/>
+      <c r="K79" s="21"/>
       <c r="L79" s="3">
         <v>4</v>
       </c>
@@ -8953,7 +8950,7 @@
       <c r="J80" s="20" t="s">
         <v>556</v>
       </c>
-      <c r="K80" s="22"/>
+      <c r="K80" s="21"/>
       <c r="L80" s="3">
         <v>4</v>
       </c>
@@ -9036,7 +9033,7 @@
       <c r="J81" s="20" t="s">
         <v>557</v>
       </c>
-      <c r="K81" s="22"/>
+      <c r="K81" s="21"/>
       <c r="L81" s="3">
         <v>4</v>
       </c>
@@ -9119,7 +9116,7 @@
       <c r="J82" s="20" t="s">
         <v>558</v>
       </c>
-      <c r="K82" s="22"/>
+      <c r="K82" s="21"/>
       <c r="L82" s="3">
         <v>4</v>
       </c>
@@ -9202,7 +9199,7 @@
       <c r="J83" s="20" t="s">
         <v>559</v>
       </c>
-      <c r="K83" s="22"/>
+      <c r="K83" s="21"/>
       <c r="L83" s="3">
         <v>4</v>
       </c>
@@ -9285,7 +9282,7 @@
       <c r="J84" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K84" s="22"/>
+      <c r="K84" s="21"/>
       <c r="L84" s="3">
         <v>4</v>
       </c>
@@ -9368,7 +9365,7 @@
       <c r="J85" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K85" s="22"/>
+      <c r="K85" s="21"/>
       <c r="L85" s="3">
         <v>4</v>
       </c>
@@ -9451,7 +9448,7 @@
       <c r="J86" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K86" s="22"/>
+      <c r="K86" s="21"/>
       <c r="L86" s="3">
         <v>4</v>
       </c>
@@ -9534,7 +9531,7 @@
       <c r="J87" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="K87" s="22"/>
+      <c r="K87" s="21"/>
       <c r="L87" s="3">
         <v>4</v>
       </c>
@@ -9617,7 +9614,7 @@
       <c r="J88" s="20" t="s">
         <v>561</v>
       </c>
-      <c r="K88" s="22"/>
+      <c r="K88" s="21"/>
       <c r="L88" s="3">
         <v>4</v>
       </c>
@@ -9700,7 +9697,7 @@
       <c r="J89" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K89" s="22"/>
+      <c r="K89" s="21"/>
       <c r="L89" s="3">
         <v>4</v>
       </c>
@@ -9783,7 +9780,7 @@
       <c r="J90" s="20" t="s">
         <v>562</v>
       </c>
-      <c r="K90" s="22"/>
+      <c r="K90" s="21"/>
       <c r="L90" s="3">
         <v>4</v>
       </c>
@@ -9866,7 +9863,7 @@
       <c r="J91" s="20" t="s">
         <v>563</v>
       </c>
-      <c r="K91" s="22"/>
+      <c r="K91" s="21"/>
       <c r="L91" s="3">
         <v>4</v>
       </c>
@@ -9949,7 +9946,7 @@
       <c r="J92" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K92" s="22"/>
+      <c r="K92" s="21"/>
       <c r="L92" s="3">
         <v>13</v>
       </c>
@@ -10032,7 +10029,7 @@
       <c r="J93" s="20" t="s">
         <v>564</v>
       </c>
-      <c r="K93" s="22"/>
+      <c r="K93" s="21"/>
       <c r="L93" s="3">
         <v>4</v>
       </c>
@@ -10115,7 +10112,7 @@
       <c r="J94" s="20" t="s">
         <v>565</v>
       </c>
-      <c r="K94" s="22"/>
+      <c r="K94" s="21"/>
       <c r="L94" s="3">
         <v>4</v>
       </c>
@@ -10198,7 +10195,7 @@
       <c r="J95" s="20" t="s">
         <v>566</v>
       </c>
-      <c r="K95" s="22"/>
+      <c r="K95" s="21"/>
       <c r="L95" s="3">
         <v>4</v>
       </c>
@@ -10281,7 +10278,7 @@
       <c r="J96" s="20" t="s">
         <v>567</v>
       </c>
-      <c r="K96" s="22"/>
+      <c r="K96" s="21"/>
       <c r="L96" s="3">
         <v>4</v>
       </c>
@@ -10364,7 +10361,7 @@
       <c r="J97" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K97" s="22"/>
+      <c r="K97" s="21"/>
       <c r="L97" s="3">
         <v>4</v>
       </c>
@@ -10447,7 +10444,7 @@
       <c r="J98" s="20" t="s">
         <v>568</v>
       </c>
-      <c r="K98" s="22"/>
+      <c r="K98" s="21"/>
       <c r="L98" s="3">
         <v>8</v>
       </c>
@@ -10528,7 +10525,7 @@
       <c r="J99" s="20" t="s">
         <v>569</v>
       </c>
-      <c r="K99" s="22"/>
+      <c r="K99" s="21"/>
       <c r="L99" s="3">
         <v>4</v>
       </c>
@@ -10611,7 +10608,7 @@
       <c r="J100" s="20" t="s">
         <v>570</v>
       </c>
-      <c r="K100" s="22"/>
+      <c r="K100" s="21"/>
       <c r="L100" s="3">
         <v>4</v>
       </c>
@@ -10694,7 +10691,7 @@
       <c r="J101" s="20" t="s">
         <v>571</v>
       </c>
-      <c r="K101" s="22"/>
+      <c r="K101" s="21"/>
       <c r="L101" s="3">
         <v>4</v>
       </c>
@@ -10777,7 +10774,7 @@
       <c r="J102" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K102" s="22"/>
+      <c r="K102" s="21"/>
       <c r="L102" s="3">
         <v>14</v>
       </c>
@@ -10860,7 +10857,7 @@
       <c r="J103" s="20" t="s">
         <v>572</v>
       </c>
-      <c r="K103" s="22"/>
+      <c r="K103" s="21"/>
       <c r="L103" s="3">
         <v>4</v>
       </c>
@@ -10943,7 +10940,7 @@
       <c r="J104" s="20" t="s">
         <v>573</v>
       </c>
-      <c r="K104" s="22"/>
+      <c r="K104" s="21"/>
       <c r="L104" s="3">
         <v>4</v>
       </c>
@@ -11024,7 +11021,7 @@
       <c r="J105" s="20" t="s">
         <v>574</v>
       </c>
-      <c r="K105" s="22"/>
+      <c r="K105" s="21"/>
       <c r="L105" s="3">
         <v>4</v>
       </c>
@@ -11107,7 +11104,7 @@
       <c r="J106" s="20" t="s">
         <v>574</v>
       </c>
-      <c r="K106" s="22"/>
+      <c r="K106" s="21"/>
       <c r="L106" s="3">
         <v>15</v>
       </c>
@@ -11190,7 +11187,7 @@
       <c r="J107" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="K107" s="22"/>
+      <c r="K107" s="21"/>
       <c r="L107" s="3">
         <v>4</v>
       </c>
@@ -11273,7 +11270,7 @@
       <c r="J108" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="K108" s="22"/>
+      <c r="K108" s="21"/>
       <c r="L108" s="3">
         <v>16</v>
       </c>
@@ -11356,7 +11353,7 @@
       <c r="J109" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K109" s="22"/>
+      <c r="K109" s="21"/>
       <c r="L109" s="3">
         <v>17</v>
       </c>
@@ -11439,7 +11436,7 @@
       <c r="J110" s="20" t="s">
         <v>576</v>
       </c>
-      <c r="K110" s="22"/>
+      <c r="K110" s="21"/>
       <c r="L110" s="3">
         <v>4</v>
       </c>
@@ -11522,7 +11519,7 @@
       <c r="J111" s="20" t="s">
         <v>577</v>
       </c>
-      <c r="K111" s="22"/>
+      <c r="K111" s="21"/>
       <c r="L111" s="3">
         <v>4</v>
       </c>
@@ -11605,7 +11602,7 @@
       <c r="J112" s="20" t="s">
         <v>578</v>
       </c>
-      <c r="K112" s="22"/>
+      <c r="K112" s="21"/>
       <c r="L112" s="3">
         <v>4</v>
       </c>
@@ -11688,7 +11685,7 @@
       <c r="J113" s="20" t="s">
         <v>579</v>
       </c>
-      <c r="K113" s="22"/>
+      <c r="K113" s="21"/>
       <c r="L113" s="3">
         <v>4</v>
       </c>
@@ -11771,7 +11768,7 @@
       <c r="J114" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="K114" s="22"/>
+      <c r="K114" s="21"/>
       <c r="L114" s="3">
         <v>4</v>
       </c>
@@ -11854,7 +11851,7 @@
       <c r="J115" s="20" t="s">
         <v>581</v>
       </c>
-      <c r="K115" s="22"/>
+      <c r="K115" s="21"/>
       <c r="L115" s="3">
         <v>4</v>
       </c>
@@ -11937,7 +11934,7 @@
       <c r="J116" s="20" t="s">
         <v>582</v>
       </c>
-      <c r="K116" s="22"/>
+      <c r="K116" s="21"/>
       <c r="L116" s="3">
         <v>2</v>
       </c>
@@ -12020,7 +12017,7 @@
       <c r="J117" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K117" s="22"/>
+      <c r="K117" s="21"/>
       <c r="L117" s="3">
         <v>4</v>
       </c>
@@ -12103,7 +12100,7 @@
       <c r="J118" s="20" t="s">
         <v>583</v>
       </c>
-      <c r="K118" s="22"/>
+      <c r="K118" s="21"/>
       <c r="L118" s="3">
         <v>4</v>
       </c>
@@ -12186,7 +12183,7 @@
       <c r="J119" s="20" t="s">
         <v>579</v>
       </c>
-      <c r="K119" s="22"/>
+      <c r="K119" s="21"/>
       <c r="L119" s="3">
         <v>4</v>
       </c>
@@ -12269,7 +12266,7 @@
       <c r="J120" s="20" t="s">
         <v>584</v>
       </c>
-      <c r="K120" s="22"/>
+      <c r="K120" s="21"/>
       <c r="L120" s="3">
         <v>4</v>
       </c>
@@ -12352,7 +12349,7 @@
       <c r="J121" s="20" t="s">
         <v>585</v>
       </c>
-      <c r="K121" s="22"/>
+      <c r="K121" s="21"/>
       <c r="L121" s="3">
         <v>9</v>
       </c>
@@ -12431,7 +12428,7 @@
       <c r="J122" s="20" t="s">
         <v>586</v>
       </c>
-      <c r="K122" s="22"/>
+      <c r="K122" s="21"/>
       <c r="L122" s="3">
         <v>4</v>
       </c>
@@ -12514,7 +12511,7 @@
       <c r="J123" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K123" s="22"/>
+      <c r="K123" s="21"/>
       <c r="L123" s="3">
         <v>4</v>
       </c>
@@ -12597,7 +12594,7 @@
       <c r="J124" s="20" t="s">
         <v>587</v>
       </c>
-      <c r="K124" s="22"/>
+      <c r="K124" s="21"/>
       <c r="L124" s="3">
         <v>4</v>
       </c>
@@ -12680,7 +12677,7 @@
       <c r="J125" s="20" t="s">
         <v>588</v>
       </c>
-      <c r="K125" s="22"/>
+      <c r="K125" s="21"/>
       <c r="L125" s="3">
         <v>4</v>
       </c>
@@ -12763,7 +12760,7 @@
       <c r="J126" s="20" t="s">
         <v>589</v>
       </c>
-      <c r="K126" s="22"/>
+      <c r="K126" s="21"/>
       <c r="L126" s="3">
         <v>4</v>
       </c>
@@ -12846,7 +12843,7 @@
       <c r="J127" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="K127" s="22"/>
+      <c r="K127" s="21"/>
       <c r="L127" s="3">
         <v>4</v>
       </c>
@@ -12927,7 +12924,7 @@
       <c r="J128" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K128" s="22"/>
+      <c r="K128" s="21"/>
       <c r="L128" s="3">
         <v>3</v>
       </c>
@@ -13010,7 +13007,7 @@
       <c r="J129" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K129" s="22"/>
+      <c r="K129" s="21"/>
       <c r="L129" s="3">
         <v>18</v>
       </c>
@@ -13093,7 +13090,7 @@
       <c r="J130" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K130" s="22"/>
+      <c r="K130" s="21"/>
       <c r="L130" s="3">
         <v>19</v>
       </c>
@@ -13176,7 +13173,7 @@
       <c r="J131" s="20" t="s">
         <v>591</v>
       </c>
-      <c r="K131" s="22"/>
+      <c r="K131" s="21"/>
       <c r="L131" s="3">
         <v>4</v>
       </c>
@@ -13259,7 +13256,7 @@
       <c r="J132" s="20" t="s">
         <v>592</v>
       </c>
-      <c r="K132" s="22"/>
+      <c r="K132" s="21"/>
       <c r="L132" s="3">
         <v>4</v>
       </c>
@@ -13342,7 +13339,7 @@
       <c r="J133" s="20" t="s">
         <v>593</v>
       </c>
-      <c r="K133" s="22"/>
+      <c r="K133" s="21"/>
       <c r="L133" s="3">
         <v>4</v>
       </c>
@@ -13425,7 +13422,7 @@
       <c r="J134" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K134" s="22"/>
+      <c r="K134" s="21"/>
       <c r="L134" s="3">
         <v>4</v>
       </c>
@@ -13508,7 +13505,7 @@
       <c r="J135" s="20" t="s">
         <v>594</v>
       </c>
-      <c r="K135" s="22"/>
+      <c r="K135" s="21"/>
       <c r="L135" s="3">
         <v>4</v>
       </c>
@@ -13591,7 +13588,7 @@
       <c r="J136" s="20" t="s">
         <v>595</v>
       </c>
-      <c r="K136" s="22"/>
+      <c r="K136" s="21"/>
       <c r="L136" s="3">
         <v>4</v>
       </c>
@@ -13674,7 +13671,7 @@
       <c r="J137" s="20" t="s">
         <v>596</v>
       </c>
-      <c r="K137" s="22"/>
+      <c r="K137" s="21"/>
       <c r="L137" s="3">
         <v>4</v>
       </c>
@@ -13757,7 +13754,7 @@
       <c r="J138" s="20" t="s">
         <v>597</v>
       </c>
-      <c r="K138" s="22"/>
+      <c r="K138" s="21"/>
       <c r="L138" s="3">
         <v>4</v>
       </c>
@@ -13840,7 +13837,7 @@
       <c r="J139" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K139" s="22"/>
+      <c r="K139" s="21"/>
       <c r="L139" s="3">
         <v>4</v>
       </c>
@@ -13923,7 +13920,7 @@
       <c r="J140" s="20" t="s">
         <v>598</v>
       </c>
-      <c r="K140" s="22"/>
+      <c r="K140" s="21"/>
       <c r="L140" s="3">
         <v>4</v>
       </c>
@@ -14006,7 +14003,7 @@
       <c r="J141" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K141" s="22"/>
+      <c r="K141" s="21"/>
       <c r="L141" s="3">
         <v>4</v>
       </c>
@@ -14089,7 +14086,7 @@
       <c r="J142" s="20" t="s">
         <v>599</v>
       </c>
-      <c r="K142" s="22"/>
+      <c r="K142" s="21"/>
       <c r="L142" s="3">
         <v>10</v>
       </c>
@@ -14170,7 +14167,7 @@
       <c r="J143" s="20" t="s">
         <v>600</v>
       </c>
-      <c r="K143" s="22"/>
+      <c r="K143" s="21"/>
       <c r="L143" s="3">
         <v>4</v>
       </c>
@@ -14253,7 +14250,7 @@
       <c r="J144" s="20" t="s">
         <v>601</v>
       </c>
-      <c r="K144" s="22"/>
+      <c r="K144" s="21"/>
       <c r="L144" s="3">
         <v>4</v>
       </c>
@@ -14336,7 +14333,7 @@
       <c r="J145" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K145" s="22"/>
+      <c r="K145" s="21"/>
       <c r="L145" s="3">
         <v>4</v>
       </c>
@@ -14419,7 +14416,7 @@
       <c r="J146" s="20" t="s">
         <v>602</v>
       </c>
-      <c r="K146" s="22"/>
+      <c r="K146" s="21"/>
       <c r="L146" s="3">
         <v>4</v>
       </c>
@@ -14502,7 +14499,7 @@
       <c r="J147" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K147" s="22"/>
+      <c r="K147" s="21"/>
       <c r="L147" s="3">
         <v>4</v>
       </c>
@@ -14585,7 +14582,7 @@
       <c r="J148" s="20" t="s">
         <v>603</v>
       </c>
-      <c r="K148" s="22"/>
+      <c r="K148" s="21"/>
       <c r="L148" s="3">
         <v>4</v>
       </c>
@@ -14666,7 +14663,7 @@
       <c r="J149" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K149" s="22"/>
+      <c r="K149" s="21"/>
       <c r="L149" s="3">
         <v>4</v>
       </c>
@@ -14747,7 +14744,7 @@
       <c r="J150" s="20" t="s">
         <v>604</v>
       </c>
-      <c r="K150" s="22"/>
+      <c r="K150" s="21"/>
       <c r="L150" s="3">
         <v>4</v>
       </c>
@@ -14830,7 +14827,7 @@
       <c r="J151" s="20" t="s">
         <v>605</v>
       </c>
-      <c r="K151" s="22"/>
+      <c r="K151" s="21"/>
       <c r="L151" s="3">
         <v>4</v>
       </c>
@@ -14913,7 +14910,7 @@
       <c r="J152" s="20" t="s">
         <v>605</v>
       </c>
-      <c r="K152" s="22"/>
+      <c r="K152" s="21"/>
       <c r="L152" s="3">
         <v>20</v>
       </c>
@@ -14996,7 +14993,7 @@
       <c r="J153" s="20" t="s">
         <v>606</v>
       </c>
-      <c r="K153" s="22"/>
+      <c r="K153" s="21"/>
       <c r="L153" s="3">
         <v>4</v>
       </c>
@@ -15079,7 +15076,7 @@
       <c r="J154" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K154" s="22"/>
+      <c r="K154" s="21"/>
       <c r="L154" s="3">
         <v>21</v>
       </c>
@@ -15162,7 +15159,7 @@
       <c r="J155" s="20" t="s">
         <v>607</v>
       </c>
-      <c r="K155" s="22"/>
+      <c r="K155" s="21"/>
       <c r="L155" s="3">
         <v>4</v>
       </c>
@@ -15245,7 +15242,7 @@
       <c r="J156" s="20" t="s">
         <v>608</v>
       </c>
-      <c r="K156" s="22"/>
+      <c r="K156" s="21"/>
       <c r="L156" s="3">
         <v>4</v>
       </c>
@@ -15328,7 +15325,7 @@
       <c r="J157" s="20" t="s">
         <v>608</v>
       </c>
-      <c r="K157" s="22"/>
+      <c r="K157" s="21"/>
       <c r="L157" s="3">
         <v>11</v>
       </c>
@@ -15411,7 +15408,7 @@
       <c r="J158" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="K158" s="22"/>
+      <c r="K158" s="21"/>
       <c r="L158" s="3">
         <v>11</v>
       </c>
@@ -15494,7 +15491,7 @@
       <c r="J159" s="20" t="s">
         <v>610</v>
       </c>
-      <c r="K159" s="22"/>
+      <c r="K159" s="21"/>
       <c r="L159" s="3">
         <v>4</v>
       </c>
@@ -15577,7 +15574,7 @@
       <c r="J160" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K160" s="22"/>
+      <c r="K160" s="21"/>
       <c r="L160" s="3">
         <v>4</v>
       </c>
@@ -15630,11 +15627,6 @@
       <c r="AE160" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE160" xr:uid="{AA92A3FA-E478-4F31-8A14-E51848C96E36}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE160">
-      <sortCondition ref="B2:B160"/>
-    </sortState>
-  </autoFilter>
   <dataValidations count="3">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U66" xr:uid="{FFAB1137-CAF9-42C3-A196-64F6A1F66279}">
       <formula1>COUNTIF(U:U, U1048438) &lt;= 1</formula1>

--- a/mosip_master/xlsx/registration_center.xlsx
+++ b/mosip_master/xlsx/registration_center.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\master Data\Master DAta Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthik.SJ\Documents\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A8824D-99A0-4EF3-9F77-4388B21A3948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA895C1-F9A7-485C-90B0-F206FACB27B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{ED2DB565-78FF-4155-97F0-5EBCB5259144}"/>
   </bookViews>
@@ -2358,8 +2358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA92A3FA-E478-4F31-8A14-E51848C96E36}">
   <dimension ref="A1:AE160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AD26" sqref="AD26:AD160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1"/>
@@ -2563,9 +2563,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="14"/>
-      <c r="AD2" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD2" s="13"/>
       <c r="AE2" s="14"/>
     </row>
     <row r="3" spans="1:31" ht="24.75" customHeight="1">
@@ -2646,9 +2644,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="14"/>
-      <c r="AD3" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD3" s="13"/>
       <c r="AE3" s="14"/>
     </row>
     <row r="4" spans="1:31" ht="24.75" customHeight="1">
@@ -2729,9 +2725,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="14"/>
-      <c r="AD4" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD4" s="13"/>
       <c r="AE4" s="14"/>
     </row>
     <row r="5" spans="1:31" ht="24.75" customHeight="1">
@@ -2812,9 +2806,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="14"/>
-      <c r="AD5" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD5" s="13"/>
       <c r="AE5" s="14"/>
     </row>
     <row r="6" spans="1:31" ht="24.75" customHeight="1">
@@ -2895,9 +2887,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="14"/>
-      <c r="AD6" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD6" s="13"/>
       <c r="AE6" s="14"/>
     </row>
     <row r="7" spans="1:31" ht="24.75" customHeight="1">
@@ -2978,9 +2968,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="14"/>
-      <c r="AD7" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD7" s="13"/>
       <c r="AE7" s="14"/>
     </row>
     <row r="8" spans="1:31" ht="24.75" customHeight="1">
@@ -3061,9 +3049,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="14"/>
-      <c r="AD8" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD8" s="13"/>
       <c r="AE8" s="14"/>
     </row>
     <row r="9" spans="1:31" ht="24.75" customHeight="1">
@@ -3144,9 +3130,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="14"/>
-      <c r="AD9" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD9" s="13"/>
       <c r="AE9" s="14"/>
     </row>
     <row r="10" spans="1:31" ht="24.75" customHeight="1">
@@ -3227,9 +3211,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="14"/>
-      <c r="AD10" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD10" s="13"/>
       <c r="AE10" s="14"/>
     </row>
     <row r="11" spans="1:31" ht="24.75" customHeight="1">
@@ -3310,9 +3292,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="14"/>
-      <c r="AD11" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD11" s="13"/>
       <c r="AE11" s="14"/>
     </row>
     <row r="12" spans="1:31" ht="24.75" customHeight="1">
@@ -3393,9 +3373,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="14"/>
-      <c r="AD12" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD12" s="13"/>
       <c r="AE12" s="14"/>
     </row>
     <row r="13" spans="1:31" ht="24.75" customHeight="1">
@@ -3476,9 +3454,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="14"/>
-      <c r="AD13" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD13" s="13"/>
       <c r="AE13" s="14"/>
     </row>
     <row r="14" spans="1:31" ht="24.75" customHeight="1">
@@ -3559,9 +3535,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="14"/>
-      <c r="AD14" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD14" s="13"/>
       <c r="AE14" s="14"/>
     </row>
     <row r="15" spans="1:31" ht="24.75" customHeight="1">
@@ -3642,9 +3616,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="14"/>
-      <c r="AD15" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD15" s="13"/>
       <c r="AE15" s="14"/>
     </row>
     <row r="16" spans="1:31" ht="24.75" customHeight="1">
@@ -3725,9 +3697,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="14"/>
-      <c r="AD16" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD16" s="13"/>
       <c r="AE16" s="14"/>
     </row>
     <row r="17" spans="1:31" ht="24.75" customHeight="1">
@@ -3808,9 +3778,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="14"/>
-      <c r="AD17" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD17" s="13"/>
       <c r="AE17" s="14"/>
     </row>
     <row r="18" spans="1:31" ht="24.75" customHeight="1">
@@ -3891,9 +3859,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="14"/>
-      <c r="AD18" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD18" s="13"/>
       <c r="AE18" s="14"/>
     </row>
     <row r="19" spans="1:31" ht="24.75" customHeight="1">
@@ -3974,9 +3940,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="14"/>
-      <c r="AD19" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD19" s="13"/>
       <c r="AE19" s="14"/>
     </row>
     <row r="20" spans="1:31" ht="24.75" customHeight="1">
@@ -4057,9 +4021,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="14"/>
-      <c r="AD20" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD20" s="13"/>
       <c r="AE20" s="14"/>
     </row>
     <row r="21" spans="1:31" ht="24.75" customHeight="1">
@@ -4140,9 +4102,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="14"/>
-      <c r="AD21" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD21" s="13"/>
       <c r="AE21" s="14"/>
     </row>
     <row r="22" spans="1:31" ht="24.75" customHeight="1">
@@ -4223,9 +4183,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="14"/>
-      <c r="AD22" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD22" s="13"/>
       <c r="AE22" s="14"/>
     </row>
     <row r="23" spans="1:31" ht="24.75" customHeight="1">
@@ -4306,9 +4264,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="14"/>
-      <c r="AD23" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD23" s="13"/>
       <c r="AE23" s="14"/>
     </row>
     <row r="24" spans="1:31" ht="24.75" customHeight="1">
@@ -4389,9 +4345,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="14"/>
-      <c r="AD24" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD24" s="13"/>
       <c r="AE24" s="14"/>
     </row>
     <row r="25" spans="1:31" ht="24.75" customHeight="1">
@@ -4525,9 +4479,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="14"/>
-      <c r="AD26" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD26" s="13"/>
       <c r="AE26" s="14"/>
     </row>
     <row r="27" spans="1:31" ht="24.75" customHeight="1">
@@ -4608,9 +4560,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="14"/>
-      <c r="AD27" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD27" s="13"/>
       <c r="AE27" s="14"/>
     </row>
     <row r="28" spans="1:31" ht="24.75" customHeight="1">
@@ -4691,9 +4641,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="14"/>
-      <c r="AD28" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD28" s="13"/>
       <c r="AE28" s="14"/>
     </row>
     <row r="29" spans="1:31" ht="24.75" customHeight="1">
@@ -4774,9 +4722,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="14"/>
-      <c r="AD29" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD29" s="13"/>
       <c r="AE29" s="14"/>
     </row>
     <row r="30" spans="1:31" ht="24.75" customHeight="1">
@@ -4857,9 +4803,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="14"/>
-      <c r="AD30" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD30" s="13"/>
       <c r="AE30" s="14"/>
     </row>
     <row r="31" spans="1:31" ht="24.75" customHeight="1">
@@ -4940,9 +4884,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="14"/>
-      <c r="AD31" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD31" s="13"/>
       <c r="AE31" s="14"/>
     </row>
     <row r="32" spans="1:31" ht="24.75" customHeight="1">
@@ -5023,9 +4965,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="14"/>
-      <c r="AD32" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD32" s="13"/>
       <c r="AE32" s="14"/>
     </row>
     <row r="33" spans="1:31" ht="24.75" customHeight="1">
@@ -5106,9 +5046,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="14"/>
-      <c r="AD33" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD33" s="13"/>
       <c r="AE33" s="14"/>
     </row>
     <row r="34" spans="1:31" ht="24.75" customHeight="1">
@@ -5189,9 +5127,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="14"/>
-      <c r="AD34" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD34" s="13"/>
       <c r="AE34" s="14"/>
     </row>
     <row r="35" spans="1:31" ht="24.75" customHeight="1">
@@ -5272,9 +5208,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="14"/>
-      <c r="AD35" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD35" s="13"/>
       <c r="AE35" s="14"/>
     </row>
     <row r="36" spans="1:31" ht="24.75" customHeight="1">
@@ -5353,9 +5287,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="14"/>
-      <c r="AD36" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD36" s="13"/>
       <c r="AE36" s="14"/>
     </row>
     <row r="37" spans="1:31" ht="24.75" customHeight="1">
@@ -5436,9 +5368,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="14"/>
-      <c r="AD37" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD37" s="13"/>
       <c r="AE37" s="14"/>
     </row>
     <row r="38" spans="1:31" ht="24.75" customHeight="1">
@@ -5519,9 +5449,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="14"/>
-      <c r="AD38" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD38" s="13"/>
       <c r="AE38" s="14"/>
     </row>
     <row r="39" spans="1:31" ht="24.75" customHeight="1">
@@ -5683,9 +5611,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="14"/>
-      <c r="AD40" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD40" s="13"/>
       <c r="AE40" s="14"/>
     </row>
     <row r="41" spans="1:31" ht="24.75" customHeight="1">
@@ -5766,9 +5692,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="14"/>
-      <c r="AD41" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD41" s="13"/>
       <c r="AE41" s="14"/>
     </row>
     <row r="42" spans="1:31" ht="24.75" customHeight="1">
@@ -5849,9 +5773,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="14"/>
-      <c r="AD42" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD42" s="13"/>
       <c r="AE42" s="14"/>
     </row>
     <row r="43" spans="1:31" ht="24.75" customHeight="1">
@@ -5932,9 +5854,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="14"/>
-      <c r="AD43" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD43" s="13"/>
       <c r="AE43" s="14"/>
     </row>
     <row r="44" spans="1:31" ht="24.75" customHeight="1">
@@ -6015,9 +5935,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="14"/>
-      <c r="AD44" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD44" s="13"/>
       <c r="AE44" s="14"/>
     </row>
     <row r="45" spans="1:31" ht="24.75" customHeight="1">
@@ -6098,9 +6016,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="14"/>
-      <c r="AD45" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD45" s="13"/>
       <c r="AE45" s="14"/>
     </row>
     <row r="46" spans="1:31" ht="24.75" customHeight="1">
@@ -6181,9 +6097,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="14"/>
-      <c r="AD46" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD46" s="13"/>
       <c r="AE46" s="14"/>
     </row>
     <row r="47" spans="1:31" ht="24.75" customHeight="1">
@@ -6264,9 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="14"/>
-      <c r="AD47" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD47" s="13"/>
       <c r="AE47" s="14"/>
     </row>
     <row r="48" spans="1:31" ht="24.75" customHeight="1">
@@ -6347,9 +6259,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="14"/>
-      <c r="AD48" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD48" s="13"/>
       <c r="AE48" s="14"/>
     </row>
     <row r="49" spans="1:31" ht="24.75" customHeight="1">
@@ -6430,9 +6340,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="14"/>
-      <c r="AD49" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD49" s="13"/>
       <c r="AE49" s="14"/>
     </row>
     <row r="50" spans="1:31" ht="24.75" customHeight="1">
@@ -6513,9 +6421,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="14"/>
-      <c r="AD50" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD50" s="13"/>
       <c r="AE50" s="14"/>
     </row>
     <row r="51" spans="1:31" ht="24.75" customHeight="1">
@@ -6596,9 +6502,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="14"/>
-      <c r="AD51" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD51" s="13"/>
       <c r="AE51" s="14"/>
     </row>
     <row r="52" spans="1:31" ht="24.75" customHeight="1">
@@ -6679,9 +6583,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="14"/>
-      <c r="AD52" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD52" s="13"/>
       <c r="AE52" s="14"/>
     </row>
     <row r="53" spans="1:31" ht="24.75" customHeight="1">
@@ -6762,9 +6664,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="14"/>
-      <c r="AD53" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD53" s="13"/>
       <c r="AE53" s="14"/>
     </row>
     <row r="54" spans="1:31" ht="24.75" customHeight="1">
@@ -6845,9 +6745,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="14"/>
-      <c r="AD54" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD54" s="13"/>
       <c r="AE54" s="14"/>
     </row>
     <row r="55" spans="1:31" ht="24.75" customHeight="1">
@@ -6928,9 +6826,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="14"/>
-      <c r="AD55" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD55" s="13"/>
       <c r="AE55" s="14"/>
     </row>
     <row r="56" spans="1:31" ht="24.75" customHeight="1">
@@ -7011,9 +6907,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="14"/>
-      <c r="AD56" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD56" s="13"/>
       <c r="AE56" s="14"/>
     </row>
     <row r="57" spans="1:31" ht="24.75" customHeight="1">
@@ -7094,9 +6988,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="14"/>
-      <c r="AD57" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD57" s="13"/>
       <c r="AE57" s="14"/>
     </row>
     <row r="58" spans="1:31" ht="24.75" customHeight="1">
@@ -7177,9 +7069,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="14"/>
-      <c r="AD58" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD58" s="13"/>
       <c r="AE58" s="14"/>
     </row>
     <row r="59" spans="1:31" ht="24.75" customHeight="1">
@@ -7260,9 +7150,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="14"/>
-      <c r="AD59" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD59" s="13"/>
       <c r="AE59" s="14"/>
     </row>
     <row r="60" spans="1:31" ht="24.75" customHeight="1">
@@ -7343,9 +7231,7 @@
         <v>0</v>
       </c>
       <c r="AC60" s="14"/>
-      <c r="AD60" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD60" s="13"/>
       <c r="AE60" s="14"/>
     </row>
     <row r="61" spans="1:31" ht="24.75" customHeight="1">
@@ -7426,9 +7312,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="14"/>
-      <c r="AD61" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD61" s="13"/>
       <c r="AE61" s="14"/>
     </row>
     <row r="62" spans="1:31" ht="24.75" customHeight="1">
@@ -7509,9 +7393,7 @@
         <v>0</v>
       </c>
       <c r="AC62" s="14"/>
-      <c r="AD62" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD62" s="13"/>
       <c r="AE62" s="14"/>
     </row>
     <row r="63" spans="1:31" ht="24.75" customHeight="1">
@@ -7592,9 +7474,7 @@
         <v>0</v>
       </c>
       <c r="AC63" s="14"/>
-      <c r="AD63" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD63" s="13"/>
       <c r="AE63" s="14"/>
     </row>
     <row r="64" spans="1:31" ht="24.75" customHeight="1">
@@ -7675,9 +7555,7 @@
         <v>0</v>
       </c>
       <c r="AC64" s="14"/>
-      <c r="AD64" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD64" s="13"/>
       <c r="AE64" s="14"/>
     </row>
     <row r="65" spans="1:31" ht="24.75" customHeight="1">
@@ -7758,9 +7636,7 @@
         <v>0</v>
       </c>
       <c r="AC65" s="14"/>
-      <c r="AD65" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD65" s="13"/>
       <c r="AE65" s="14"/>
     </row>
     <row r="66" spans="1:31" ht="24.75" customHeight="1">
@@ -7841,9 +7717,7 @@
         <v>0</v>
       </c>
       <c r="AC66" s="14"/>
-      <c r="AD66" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD66" s="13"/>
       <c r="AE66" s="14"/>
     </row>
     <row r="67" spans="1:31" ht="24.75" customHeight="1">
@@ -7924,9 +7798,7 @@
         <v>0</v>
       </c>
       <c r="AC67" s="14"/>
-      <c r="AD67" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD67" s="13"/>
       <c r="AE67" s="14"/>
     </row>
     <row r="68" spans="1:31" ht="24.75" customHeight="1">
@@ -8005,9 +7877,7 @@
         <v>0</v>
       </c>
       <c r="AC68" s="14"/>
-      <c r="AD68" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD68" s="13"/>
       <c r="AE68" s="14"/>
     </row>
     <row r="69" spans="1:31" ht="24.75" customHeight="1">
@@ -8088,9 +7958,7 @@
         <v>0</v>
       </c>
       <c r="AC69" s="14"/>
-      <c r="AD69" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD69" s="13"/>
       <c r="AE69" s="14"/>
     </row>
     <row r="70" spans="1:31" ht="24.75" customHeight="1">
@@ -8252,9 +8120,7 @@
         <v>0</v>
       </c>
       <c r="AC71" s="14"/>
-      <c r="AD71" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD71" s="13"/>
       <c r="AE71" s="14"/>
     </row>
     <row r="72" spans="1:31" ht="24.75" customHeight="1">
@@ -8416,9 +8282,7 @@
         <v>0</v>
       </c>
       <c r="AC73" s="14"/>
-      <c r="AD73" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD73" s="13"/>
       <c r="AE73" s="14"/>
     </row>
     <row r="74" spans="1:31" ht="24.75" customHeight="1">
@@ -8499,9 +8363,7 @@
         <v>0</v>
       </c>
       <c r="AC74" s="14"/>
-      <c r="AD74" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD74" s="13"/>
       <c r="AE74" s="14"/>
     </row>
     <row r="75" spans="1:31" ht="24.75" customHeight="1">
@@ -8582,9 +8444,7 @@
         <v>0</v>
       </c>
       <c r="AC75" s="14"/>
-      <c r="AD75" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD75" s="13"/>
       <c r="AE75" s="14"/>
     </row>
     <row r="76" spans="1:31" ht="24.75" customHeight="1">
@@ -8665,9 +8525,7 @@
         <v>0</v>
       </c>
       <c r="AC76" s="14"/>
-      <c r="AD76" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD76" s="13"/>
       <c r="AE76" s="14"/>
     </row>
     <row r="77" spans="1:31" ht="24.75" customHeight="1">
@@ -8748,9 +8606,7 @@
         <v>0</v>
       </c>
       <c r="AC77" s="14"/>
-      <c r="AD77" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD77" s="13"/>
       <c r="AE77" s="14"/>
     </row>
     <row r="78" spans="1:31" ht="24.75" customHeight="1">
@@ -8831,9 +8687,7 @@
         <v>0</v>
       </c>
       <c r="AC78" s="14"/>
-      <c r="AD78" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD78" s="13"/>
       <c r="AE78" s="14"/>
     </row>
     <row r="79" spans="1:31" ht="24.75" customHeight="1">
@@ -8914,9 +8768,7 @@
         <v>0</v>
       </c>
       <c r="AC79" s="14"/>
-      <c r="AD79" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD79" s="13"/>
       <c r="AE79" s="14"/>
     </row>
     <row r="80" spans="1:31" ht="24.75" customHeight="1">
@@ -8997,9 +8849,7 @@
         <v>0</v>
       </c>
       <c r="AC80" s="14"/>
-      <c r="AD80" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD80" s="13"/>
       <c r="AE80" s="14"/>
     </row>
     <row r="81" spans="1:31" ht="24.75" customHeight="1">
@@ -9080,9 +8930,7 @@
         <v>0</v>
       </c>
       <c r="AC81" s="14"/>
-      <c r="AD81" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD81" s="13"/>
       <c r="AE81" s="14"/>
     </row>
     <row r="82" spans="1:31" ht="24.75" customHeight="1">
@@ -9163,9 +9011,7 @@
         <v>0</v>
       </c>
       <c r="AC82" s="14"/>
-      <c r="AD82" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD82" s="13"/>
       <c r="AE82" s="14"/>
     </row>
     <row r="83" spans="1:31" ht="24.75" customHeight="1">
@@ -9246,9 +9092,7 @@
         <v>0</v>
       </c>
       <c r="AC83" s="14"/>
-      <c r="AD83" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD83" s="13"/>
       <c r="AE83" s="14"/>
     </row>
     <row r="84" spans="1:31" ht="24.75" customHeight="1">
@@ -9329,9 +9173,7 @@
         <v>0</v>
       </c>
       <c r="AC84" s="14"/>
-      <c r="AD84" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD84" s="13"/>
       <c r="AE84" s="14"/>
     </row>
     <row r="85" spans="1:31" ht="24.75" customHeight="1">
@@ -9412,9 +9254,7 @@
         <v>0</v>
       </c>
       <c r="AC85" s="14"/>
-      <c r="AD85" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD85" s="13"/>
       <c r="AE85" s="14"/>
     </row>
     <row r="86" spans="1:31" ht="24.75" customHeight="1">
@@ -9495,9 +9335,7 @@
         <v>0</v>
       </c>
       <c r="AC86" s="14"/>
-      <c r="AD86" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD86" s="13"/>
       <c r="AE86" s="14"/>
     </row>
     <row r="87" spans="1:31" ht="24.75" customHeight="1">
@@ -9578,9 +9416,7 @@
         <v>0</v>
       </c>
       <c r="AC87" s="14"/>
-      <c r="AD87" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD87" s="13"/>
       <c r="AE87" s="14"/>
     </row>
     <row r="88" spans="1:31" ht="24.75" customHeight="1">
@@ -9661,9 +9497,7 @@
         <v>0</v>
       </c>
       <c r="AC88" s="14"/>
-      <c r="AD88" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD88" s="13"/>
       <c r="AE88" s="14"/>
     </row>
     <row r="89" spans="1:31" ht="24.75" customHeight="1">
@@ -9744,9 +9578,7 @@
         <v>0</v>
       </c>
       <c r="AC89" s="14"/>
-      <c r="AD89" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD89" s="13"/>
       <c r="AE89" s="14"/>
     </row>
     <row r="90" spans="1:31" ht="24.75" customHeight="1">
@@ -9827,9 +9659,7 @@
         <v>0</v>
       </c>
       <c r="AC90" s="14"/>
-      <c r="AD90" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD90" s="13"/>
       <c r="AE90" s="14"/>
     </row>
     <row r="91" spans="1:31" ht="24.75" customHeight="1">
@@ -9910,9 +9740,7 @@
         <v>0</v>
       </c>
       <c r="AC91" s="14"/>
-      <c r="AD91" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD91" s="13"/>
       <c r="AE91" s="14"/>
     </row>
     <row r="92" spans="1:31" ht="24.75" customHeight="1">
@@ -9993,9 +9821,7 @@
         <v>0</v>
       </c>
       <c r="AC92" s="14"/>
-      <c r="AD92" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD92" s="13"/>
       <c r="AE92" s="14"/>
     </row>
     <row r="93" spans="1:31" ht="24.75" customHeight="1">
@@ -10076,9 +9902,7 @@
         <v>0</v>
       </c>
       <c r="AC93" s="14"/>
-      <c r="AD93" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD93" s="13"/>
       <c r="AE93" s="14"/>
     </row>
     <row r="94" spans="1:31" ht="24.75" customHeight="1">
@@ -10159,9 +9983,7 @@
         <v>0</v>
       </c>
       <c r="AC94" s="14"/>
-      <c r="AD94" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD94" s="13"/>
       <c r="AE94" s="14"/>
     </row>
     <row r="95" spans="1:31" ht="24.75" customHeight="1">
@@ -10242,9 +10064,7 @@
         <v>0</v>
       </c>
       <c r="AC95" s="14"/>
-      <c r="AD95" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD95" s="13"/>
       <c r="AE95" s="14"/>
     </row>
     <row r="96" spans="1:31" ht="24.75" customHeight="1">
@@ -10325,9 +10145,7 @@
         <v>0</v>
       </c>
       <c r="AC96" s="14"/>
-      <c r="AD96" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD96" s="13"/>
       <c r="AE96" s="14"/>
     </row>
     <row r="97" spans="1:31" ht="24.75" customHeight="1">
@@ -10408,9 +10226,7 @@
         <v>0</v>
       </c>
       <c r="AC97" s="14"/>
-      <c r="AD97" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD97" s="13"/>
       <c r="AE97" s="14"/>
     </row>
     <row r="98" spans="1:31" ht="24.75" customHeight="1">
@@ -10489,9 +10305,7 @@
         <v>0</v>
       </c>
       <c r="AC98" s="14"/>
-      <c r="AD98" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD98" s="13"/>
       <c r="AE98" s="14"/>
     </row>
     <row r="99" spans="1:31" ht="24.75" customHeight="1">
@@ -10572,9 +10386,7 @@
         <v>0</v>
       </c>
       <c r="AC99" s="14"/>
-      <c r="AD99" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD99" s="13"/>
       <c r="AE99" s="14"/>
     </row>
     <row r="100" spans="1:31" ht="24.75" customHeight="1">
@@ -10655,9 +10467,7 @@
         <v>0</v>
       </c>
       <c r="AC100" s="14"/>
-      <c r="AD100" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD100" s="13"/>
       <c r="AE100" s="14"/>
     </row>
     <row r="101" spans="1:31" ht="24.75" customHeight="1">
@@ -10738,9 +10548,7 @@
         <v>0</v>
       </c>
       <c r="AC101" s="14"/>
-      <c r="AD101" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD101" s="13"/>
       <c r="AE101" s="14"/>
     </row>
     <row r="102" spans="1:31" ht="24.75" customHeight="1">
@@ -10821,9 +10629,7 @@
         <v>0</v>
       </c>
       <c r="AC102" s="14"/>
-      <c r="AD102" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD102" s="13"/>
       <c r="AE102" s="14"/>
     </row>
     <row r="103" spans="1:31" ht="24.75" customHeight="1">
@@ -10904,9 +10710,7 @@
         <v>0</v>
       </c>
       <c r="AC103" s="14"/>
-      <c r="AD103" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD103" s="13"/>
       <c r="AE103" s="14"/>
     </row>
     <row r="104" spans="1:31" ht="24.75" customHeight="1">
@@ -11068,9 +10872,7 @@
         <v>0</v>
       </c>
       <c r="AC105" s="14"/>
-      <c r="AD105" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD105" s="13"/>
       <c r="AE105" s="14"/>
     </row>
     <row r="106" spans="1:31" ht="24.75" customHeight="1">
@@ -11151,9 +10953,7 @@
         <v>0</v>
       </c>
       <c r="AC106" s="14"/>
-      <c r="AD106" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD106" s="13"/>
       <c r="AE106" s="14"/>
     </row>
     <row r="107" spans="1:31" ht="24.75" customHeight="1">
@@ -11234,9 +11034,7 @@
         <v>0</v>
       </c>
       <c r="AC107" s="14"/>
-      <c r="AD107" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD107" s="13"/>
       <c r="AE107" s="14"/>
     </row>
     <row r="108" spans="1:31" ht="24.75" customHeight="1">
@@ -11317,9 +11115,7 @@
         <v>0</v>
       </c>
       <c r="AC108" s="14"/>
-      <c r="AD108" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD108" s="13"/>
       <c r="AE108" s="14"/>
     </row>
     <row r="109" spans="1:31" ht="24.75" customHeight="1">
@@ -11400,9 +11196,7 @@
         <v>0</v>
       </c>
       <c r="AC109" s="14"/>
-      <c r="AD109" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD109" s="13"/>
       <c r="AE109" s="14"/>
     </row>
     <row r="110" spans="1:31" ht="24.75" customHeight="1">
@@ -11483,9 +11277,7 @@
         <v>0</v>
       </c>
       <c r="AC110" s="14"/>
-      <c r="AD110" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD110" s="13"/>
       <c r="AE110" s="14"/>
     </row>
     <row r="111" spans="1:31" ht="24.75" customHeight="1">
@@ -11566,9 +11358,7 @@
         <v>0</v>
       </c>
       <c r="AC111" s="14"/>
-      <c r="AD111" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD111" s="13"/>
       <c r="AE111" s="14"/>
     </row>
     <row r="112" spans="1:31" ht="24.75" customHeight="1">
@@ -11649,9 +11439,7 @@
         <v>0</v>
       </c>
       <c r="AC112" s="14"/>
-      <c r="AD112" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD112" s="13"/>
       <c r="AE112" s="14"/>
     </row>
     <row r="113" spans="1:31" ht="24.75" customHeight="1">
@@ -11732,9 +11520,7 @@
         <v>0</v>
       </c>
       <c r="AC113" s="14"/>
-      <c r="AD113" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD113" s="13"/>
       <c r="AE113" s="14"/>
     </row>
     <row r="114" spans="1:31" ht="24.75" customHeight="1">
@@ -11815,9 +11601,7 @@
         <v>0</v>
       </c>
       <c r="AC114" s="14"/>
-      <c r="AD114" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD114" s="13"/>
       <c r="AE114" s="14"/>
     </row>
     <row r="115" spans="1:31" ht="24.75" customHeight="1">
@@ -11898,9 +11682,7 @@
         <v>0</v>
       </c>
       <c r="AC115" s="14"/>
-      <c r="AD115" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD115" s="13"/>
       <c r="AE115" s="14"/>
     </row>
     <row r="116" spans="1:31" ht="24.75" customHeight="1">
@@ -11981,9 +11763,7 @@
         <v>0</v>
       </c>
       <c r="AC116" s="14"/>
-      <c r="AD116" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD116" s="13"/>
       <c r="AE116" s="14"/>
     </row>
     <row r="117" spans="1:31" ht="24.75" customHeight="1">
@@ -12064,9 +11844,7 @@
         <v>0</v>
       </c>
       <c r="AC117" s="14"/>
-      <c r="AD117" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD117" s="13"/>
       <c r="AE117" s="14"/>
     </row>
     <row r="118" spans="1:31" ht="24.75" customHeight="1">
@@ -12147,9 +11925,7 @@
         <v>0</v>
       </c>
       <c r="AC118" s="14"/>
-      <c r="AD118" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD118" s="13"/>
       <c r="AE118" s="14"/>
     </row>
     <row r="119" spans="1:31" ht="24.75" customHeight="1">
@@ -12230,9 +12006,7 @@
         <v>0</v>
       </c>
       <c r="AC119" s="14"/>
-      <c r="AD119" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD119" s="13"/>
       <c r="AE119" s="14"/>
     </row>
     <row r="120" spans="1:31" ht="24.75" customHeight="1">
@@ -12313,9 +12087,7 @@
         <v>0</v>
       </c>
       <c r="AC120" s="14"/>
-      <c r="AD120" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD120" s="13"/>
       <c r="AE120" s="14"/>
     </row>
     <row r="121" spans="1:31" ht="24.75" customHeight="1">
@@ -12475,9 +12247,7 @@
         <v>0</v>
       </c>
       <c r="AC122" s="14"/>
-      <c r="AD122" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD122" s="13"/>
       <c r="AE122" s="14"/>
     </row>
     <row r="123" spans="1:31" ht="24.75" customHeight="1">
@@ -12558,9 +12328,7 @@
         <v>0</v>
       </c>
       <c r="AC123" s="14"/>
-      <c r="AD123" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD123" s="13"/>
       <c r="AE123" s="14"/>
     </row>
     <row r="124" spans="1:31" ht="24.75" customHeight="1">
@@ -12641,9 +12409,7 @@
         <v>0</v>
       </c>
       <c r="AC124" s="14"/>
-      <c r="AD124" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD124" s="13"/>
       <c r="AE124" s="14"/>
     </row>
     <row r="125" spans="1:31" ht="24.75" customHeight="1">
@@ -12724,9 +12490,7 @@
         <v>0</v>
       </c>
       <c r="AC125" s="14"/>
-      <c r="AD125" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD125" s="13"/>
       <c r="AE125" s="14"/>
     </row>
     <row r="126" spans="1:31" ht="24.75" customHeight="1">
@@ -12807,9 +12571,7 @@
         <v>0</v>
       </c>
       <c r="AC126" s="14"/>
-      <c r="AD126" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD126" s="13"/>
       <c r="AE126" s="14"/>
     </row>
     <row r="127" spans="1:31" ht="24.75" customHeight="1">
@@ -12971,9 +12733,7 @@
         <v>0</v>
       </c>
       <c r="AC128" s="14"/>
-      <c r="AD128" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD128" s="13"/>
       <c r="AE128" s="14"/>
     </row>
     <row r="129" spans="1:31" ht="24.75" customHeight="1">
@@ -13054,9 +12814,7 @@
         <v>0</v>
       </c>
       <c r="AC129" s="14"/>
-      <c r="AD129" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD129" s="13"/>
       <c r="AE129" s="14"/>
     </row>
     <row r="130" spans="1:31" ht="24.75" customHeight="1">
@@ -13137,9 +12895,7 @@
         <v>0</v>
       </c>
       <c r="AC130" s="14"/>
-      <c r="AD130" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD130" s="13"/>
       <c r="AE130" s="14"/>
     </row>
     <row r="131" spans="1:31" ht="24.75" customHeight="1">
@@ -13220,9 +12976,7 @@
         <v>0</v>
       </c>
       <c r="AC131" s="14"/>
-      <c r="AD131" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD131" s="13"/>
       <c r="AE131" s="14"/>
     </row>
     <row r="132" spans="1:31" ht="24.75" customHeight="1">
@@ -13303,9 +13057,7 @@
         <v>0</v>
       </c>
       <c r="AC132" s="14"/>
-      <c r="AD132" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD132" s="13"/>
       <c r="AE132" s="14"/>
     </row>
     <row r="133" spans="1:31" ht="24.75" customHeight="1">
@@ -13386,9 +13138,7 @@
         <v>0</v>
       </c>
       <c r="AC133" s="14"/>
-      <c r="AD133" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD133" s="13"/>
       <c r="AE133" s="14"/>
     </row>
     <row r="134" spans="1:31" ht="24.75" customHeight="1">
@@ -13469,9 +13219,7 @@
         <v>0</v>
       </c>
       <c r="AC134" s="14"/>
-      <c r="AD134" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD134" s="13"/>
       <c r="AE134" s="14"/>
     </row>
     <row r="135" spans="1:31" ht="24.75" customHeight="1">
@@ -13552,9 +13300,7 @@
         <v>0</v>
       </c>
       <c r="AC135" s="14"/>
-      <c r="AD135" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD135" s="13"/>
       <c r="AE135" s="14"/>
     </row>
     <row r="136" spans="1:31" ht="24.75" customHeight="1">
@@ -13635,9 +13381,7 @@
         <v>0</v>
       </c>
       <c r="AC136" s="14"/>
-      <c r="AD136" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD136" s="13"/>
       <c r="AE136" s="14"/>
     </row>
     <row r="137" spans="1:31" ht="24.75" customHeight="1">
@@ -13718,9 +13462,7 @@
         <v>0</v>
       </c>
       <c r="AC137" s="14"/>
-      <c r="AD137" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD137" s="13"/>
       <c r="AE137" s="14"/>
     </row>
     <row r="138" spans="1:31" ht="24.75" customHeight="1">
@@ -13801,9 +13543,7 @@
         <v>0</v>
       </c>
       <c r="AC138" s="14"/>
-      <c r="AD138" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD138" s="13"/>
       <c r="AE138" s="14"/>
     </row>
     <row r="139" spans="1:31" ht="24.75" customHeight="1">
@@ -13884,9 +13624,7 @@
         <v>0</v>
       </c>
       <c r="AC139" s="14"/>
-      <c r="AD139" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD139" s="13"/>
       <c r="AE139" s="14"/>
     </row>
     <row r="140" spans="1:31" ht="24.75" customHeight="1">
@@ -13967,9 +13705,7 @@
         <v>0</v>
       </c>
       <c r="AC140" s="14"/>
-      <c r="AD140" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD140" s="13"/>
       <c r="AE140" s="14"/>
     </row>
     <row r="141" spans="1:31" ht="24.75" customHeight="1">
@@ -14050,9 +13786,7 @@
         <v>0</v>
       </c>
       <c r="AC141" s="14"/>
-      <c r="AD141" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD141" s="13"/>
       <c r="AE141" s="14"/>
     </row>
     <row r="142" spans="1:31" ht="24.75" customHeight="1">
@@ -14131,9 +13865,7 @@
         <v>0</v>
       </c>
       <c r="AC142" s="14"/>
-      <c r="AD142" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD142" s="13"/>
       <c r="AE142" s="14"/>
     </row>
     <row r="143" spans="1:31" ht="24.75" customHeight="1">
@@ -14214,9 +13946,7 @@
         <v>0</v>
       </c>
       <c r="AC143" s="14"/>
-      <c r="AD143" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD143" s="13"/>
       <c r="AE143" s="14"/>
     </row>
     <row r="144" spans="1:31" ht="24.75" customHeight="1">
@@ -14297,9 +14027,7 @@
         <v>0</v>
       </c>
       <c r="AC144" s="14"/>
-      <c r="AD144" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD144" s="13"/>
       <c r="AE144" s="14"/>
     </row>
     <row r="145" spans="1:31" ht="24.75" customHeight="1">
@@ -14380,9 +14108,7 @@
         <v>0</v>
       </c>
       <c r="AC145" s="14"/>
-      <c r="AD145" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD145" s="13"/>
       <c r="AE145" s="14"/>
     </row>
     <row r="146" spans="1:31" ht="24.75" customHeight="1">
@@ -14463,9 +14189,7 @@
         <v>0</v>
       </c>
       <c r="AC146" s="14"/>
-      <c r="AD146" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD146" s="13"/>
       <c r="AE146" s="14"/>
     </row>
     <row r="147" spans="1:31" ht="24.75" customHeight="1">
@@ -14546,9 +14270,7 @@
         <v>0</v>
       </c>
       <c r="AC147" s="14"/>
-      <c r="AD147" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD147" s="13"/>
       <c r="AE147" s="14"/>
     </row>
     <row r="148" spans="1:31" ht="24.75" customHeight="1">
@@ -14629,9 +14351,7 @@
         <v>0</v>
       </c>
       <c r="AC148" s="14"/>
-      <c r="AD148" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD148" s="13"/>
       <c r="AE148" s="14"/>
     </row>
     <row r="149" spans="1:31" ht="24.75" customHeight="1">
@@ -14791,9 +14511,7 @@
         <v>0</v>
       </c>
       <c r="AC150" s="14"/>
-      <c r="AD150" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD150" s="13"/>
       <c r="AE150" s="14"/>
     </row>
     <row r="151" spans="1:31" ht="24.75" customHeight="1">
@@ -14874,9 +14592,7 @@
         <v>0</v>
       </c>
       <c r="AC151" s="14"/>
-      <c r="AD151" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD151" s="13"/>
       <c r="AE151" s="14"/>
     </row>
     <row r="152" spans="1:31" ht="24.75" customHeight="1">
@@ -14957,9 +14673,7 @@
         <v>0</v>
       </c>
       <c r="AC152" s="14"/>
-      <c r="AD152" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD152" s="13"/>
       <c r="AE152" s="14"/>
     </row>
     <row r="153" spans="1:31" ht="24.75" customHeight="1">
@@ -15040,9 +14754,7 @@
         <v>0</v>
       </c>
       <c r="AC153" s="14"/>
-      <c r="AD153" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD153" s="13"/>
       <c r="AE153" s="14"/>
     </row>
     <row r="154" spans="1:31" ht="24.75" customHeight="1">
@@ -15123,9 +14835,7 @@
         <v>0</v>
       </c>
       <c r="AC154" s="14"/>
-      <c r="AD154" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD154" s="13"/>
       <c r="AE154" s="14"/>
     </row>
     <row r="155" spans="1:31" ht="24.75" customHeight="1">
@@ -15206,9 +14916,7 @@
         <v>0</v>
       </c>
       <c r="AC155" s="14"/>
-      <c r="AD155" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD155" s="13"/>
       <c r="AE155" s="14"/>
     </row>
     <row r="156" spans="1:31" ht="24.75" customHeight="1">
@@ -15289,9 +14997,7 @@
         <v>0</v>
       </c>
       <c r="AC156" s="14"/>
-      <c r="AD156" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD156" s="13"/>
       <c r="AE156" s="14"/>
     </row>
     <row r="157" spans="1:31" ht="24.75" customHeight="1">
@@ -15372,9 +15078,7 @@
         <v>0</v>
       </c>
       <c r="AC157" s="14"/>
-      <c r="AD157" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD157" s="13"/>
       <c r="AE157" s="14"/>
     </row>
     <row r="158" spans="1:31" ht="24.75" customHeight="1">
@@ -15455,9 +15159,7 @@
         <v>0</v>
       </c>
       <c r="AC158" s="14"/>
-      <c r="AD158" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD158" s="13"/>
       <c r="AE158" s="14"/>
     </row>
     <row r="159" spans="1:31" ht="24.75" customHeight="1">
@@ -15538,9 +15240,7 @@
         <v>0</v>
       </c>
       <c r="AC159" s="14"/>
-      <c r="AD159" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD159" s="13"/>
       <c r="AE159" s="14"/>
     </row>
     <row r="160" spans="1:31" ht="24.75" customHeight="1">
@@ -15621,9 +15321,7 @@
         <v>0</v>
       </c>
       <c r="AC160" s="14"/>
-      <c r="AD160" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD160" s="13"/>
       <c r="AE160" s="14"/>
     </row>
   </sheetData>

--- a/mosip_master/xlsx/registration_center.xlsx
+++ b/mosip_master/xlsx/registration_center.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthik.SJ\Documents\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA895C1-F9A7-485C-90B0-F206FACB27B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122DEC5E-98C8-4009-BDA8-DB1A7B6C2EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{ED2DB565-78FF-4155-97F0-5EBCB5259144}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="613">
   <si>
     <t>id</t>
   </si>
@@ -1872,6 +1872,12 @@
   </si>
   <si>
     <t>0312119725</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -2358,8 +2364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA92A3FA-E478-4F31-8A14-E51848C96E36}">
   <dimension ref="A1:AE160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AD26" sqref="AD26:AD160"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2:AB24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1"/>
@@ -2550,8 +2556,8 @@
       <c r="V2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W2" s="13" t="b">
-        <v>1</v>
+      <c r="W2" s="13" t="s">
+        <v>611</v>
       </c>
       <c r="X2" s="14"/>
       <c r="Y2" s="15">
@@ -2559,8 +2565,8 @@
       </c>
       <c r="Z2" s="14"/>
       <c r="AA2" s="14"/>
-      <c r="AB2" s="13" t="b">
-        <v>0</v>
+      <c r="AB2" s="13" t="s">
+        <v>612</v>
       </c>
       <c r="AC2" s="14"/>
       <c r="AD2" s="13"/>
@@ -2631,8 +2637,8 @@
       <c r="V3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W3" s="13" t="b">
-        <v>1</v>
+      <c r="W3" s="13" t="s">
+        <v>611</v>
       </c>
       <c r="X3" s="14"/>
       <c r="Y3" s="15">
@@ -2640,8 +2646,8 @@
       </c>
       <c r="Z3" s="14"/>
       <c r="AA3" s="14"/>
-      <c r="AB3" s="13" t="b">
-        <v>0</v>
+      <c r="AB3" s="13" t="s">
+        <v>612</v>
       </c>
       <c r="AC3" s="14"/>
       <c r="AD3" s="13"/>
@@ -2712,8 +2718,8 @@
       <c r="V4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W4" s="13" t="b">
-        <v>1</v>
+      <c r="W4" s="13" t="s">
+        <v>611</v>
       </c>
       <c r="X4" s="14"/>
       <c r="Y4" s="15">
@@ -2721,8 +2727,8 @@
       </c>
       <c r="Z4" s="14"/>
       <c r="AA4" s="14"/>
-      <c r="AB4" s="13" t="b">
-        <v>0</v>
+      <c r="AB4" s="13" t="s">
+        <v>612</v>
       </c>
       <c r="AC4" s="14"/>
       <c r="AD4" s="13"/>
@@ -2793,8 +2799,8 @@
       <c r="V5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W5" s="13" t="b">
-        <v>1</v>
+      <c r="W5" s="13" t="s">
+        <v>611</v>
       </c>
       <c r="X5" s="14"/>
       <c r="Y5" s="15">
@@ -2802,8 +2808,8 @@
       </c>
       <c r="Z5" s="14"/>
       <c r="AA5" s="14"/>
-      <c r="AB5" s="13" t="b">
-        <v>0</v>
+      <c r="AB5" s="13" t="s">
+        <v>612</v>
       </c>
       <c r="AC5" s="14"/>
       <c r="AD5" s="13"/>
@@ -2874,8 +2880,8 @@
       <c r="V6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W6" s="13" t="b">
-        <v>1</v>
+      <c r="W6" s="13" t="s">
+        <v>611</v>
       </c>
       <c r="X6" s="14"/>
       <c r="Y6" s="15">
@@ -2883,8 +2889,8 @@
       </c>
       <c r="Z6" s="14"/>
       <c r="AA6" s="14"/>
-      <c r="AB6" s="13" t="b">
-        <v>0</v>
+      <c r="AB6" s="13" t="s">
+        <v>612</v>
       </c>
       <c r="AC6" s="14"/>
       <c r="AD6" s="13"/>
@@ -2955,8 +2961,8 @@
       <c r="V7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="13" t="b">
-        <v>1</v>
+      <c r="W7" s="13" t="s">
+        <v>611</v>
       </c>
       <c r="X7" s="14"/>
       <c r="Y7" s="15">
@@ -2964,8 +2970,8 @@
       </c>
       <c r="Z7" s="14"/>
       <c r="AA7" s="14"/>
-      <c r="AB7" s="13" t="b">
-        <v>0</v>
+      <c r="AB7" s="13" t="s">
+        <v>612</v>
       </c>
       <c r="AC7" s="14"/>
       <c r="AD7" s="13"/>
@@ -3036,8 +3042,8 @@
       <c r="V8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W8" s="13" t="b">
-        <v>1</v>
+      <c r="W8" s="13" t="s">
+        <v>611</v>
       </c>
       <c r="X8" s="14"/>
       <c r="Y8" s="15">
@@ -3045,8 +3051,8 @@
       </c>
       <c r="Z8" s="14"/>
       <c r="AA8" s="14"/>
-      <c r="AB8" s="13" t="b">
-        <v>0</v>
+      <c r="AB8" s="13" t="s">
+        <v>612</v>
       </c>
       <c r="AC8" s="14"/>
       <c r="AD8" s="13"/>
@@ -3117,8 +3123,8 @@
       <c r="V9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W9" s="13" t="b">
-        <v>1</v>
+      <c r="W9" s="13" t="s">
+        <v>611</v>
       </c>
       <c r="X9" s="14"/>
       <c r="Y9" s="15">
@@ -3126,8 +3132,8 @@
       </c>
       <c r="Z9" s="14"/>
       <c r="AA9" s="14"/>
-      <c r="AB9" s="13" t="b">
-        <v>0</v>
+      <c r="AB9" s="13" t="s">
+        <v>612</v>
       </c>
       <c r="AC9" s="14"/>
       <c r="AD9" s="13"/>
@@ -3198,8 +3204,8 @@
       <c r="V10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W10" s="13" t="b">
-        <v>1</v>
+      <c r="W10" s="13" t="s">
+        <v>611</v>
       </c>
       <c r="X10" s="14"/>
       <c r="Y10" s="15">
@@ -3207,8 +3213,8 @@
       </c>
       <c r="Z10" s="14"/>
       <c r="AA10" s="14"/>
-      <c r="AB10" s="13" t="b">
-        <v>0</v>
+      <c r="AB10" s="13" t="s">
+        <v>612</v>
       </c>
       <c r="AC10" s="14"/>
       <c r="AD10" s="13"/>
@@ -3279,8 +3285,8 @@
       <c r="V11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W11" s="13" t="b">
-        <v>1</v>
+      <c r="W11" s="13" t="s">
+        <v>611</v>
       </c>
       <c r="X11" s="14"/>
       <c r="Y11" s="15">
@@ -3288,8 +3294,8 @@
       </c>
       <c r="Z11" s="14"/>
       <c r="AA11" s="14"/>
-      <c r="AB11" s="13" t="b">
-        <v>0</v>
+      <c r="AB11" s="13" t="s">
+        <v>612</v>
       </c>
       <c r="AC11" s="14"/>
       <c r="AD11" s="13"/>
@@ -3360,8 +3366,8 @@
       <c r="V12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W12" s="13" t="b">
-        <v>1</v>
+      <c r="W12" s="13" t="s">
+        <v>611</v>
       </c>
       <c r="X12" s="14"/>
       <c r="Y12" s="15">
@@ -3369,8 +3375,8 @@
       </c>
       <c r="Z12" s="14"/>
       <c r="AA12" s="14"/>
-      <c r="AB12" s="13" t="b">
-        <v>0</v>
+      <c r="AB12" s="13" t="s">
+        <v>612</v>
       </c>
       <c r="AC12" s="14"/>
       <c r="AD12" s="13"/>
@@ -3441,8 +3447,8 @@
       <c r="V13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W13" s="13" t="b">
-        <v>1</v>
+      <c r="W13" s="13" t="s">
+        <v>611</v>
       </c>
       <c r="X13" s="14"/>
       <c r="Y13" s="15">
@@ -3450,8 +3456,8 @@
       </c>
       <c r="Z13" s="14"/>
       <c r="AA13" s="14"/>
-      <c r="AB13" s="13" t="b">
-        <v>0</v>
+      <c r="AB13" s="13" t="s">
+        <v>612</v>
       </c>
       <c r="AC13" s="14"/>
       <c r="AD13" s="13"/>
@@ -3522,8 +3528,8 @@
       <c r="V14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W14" s="13" t="b">
-        <v>1</v>
+      <c r="W14" s="13" t="s">
+        <v>611</v>
       </c>
       <c r="X14" s="14"/>
       <c r="Y14" s="15">
@@ -3531,8 +3537,8 @@
       </c>
       <c r="Z14" s="14"/>
       <c r="AA14" s="14"/>
-      <c r="AB14" s="13" t="b">
-        <v>0</v>
+      <c r="AB14" s="13" t="s">
+        <v>612</v>
       </c>
       <c r="AC14" s="14"/>
       <c r="AD14" s="13"/>
@@ -3603,8 +3609,8 @@
       <c r="V15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W15" s="13" t="b">
-        <v>1</v>
+      <c r="W15" s="13" t="s">
+        <v>611</v>
       </c>
       <c r="X15" s="14"/>
       <c r="Y15" s="15">
@@ -3612,8 +3618,8 @@
       </c>
       <c r="Z15" s="14"/>
       <c r="AA15" s="14"/>
-      <c r="AB15" s="13" t="b">
-        <v>0</v>
+      <c r="AB15" s="13" t="s">
+        <v>612</v>
       </c>
       <c r="AC15" s="14"/>
       <c r="AD15" s="13"/>
@@ -3684,8 +3690,8 @@
       <c r="V16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W16" s="13" t="b">
-        <v>1</v>
+      <c r="W16" s="13" t="s">
+        <v>611</v>
       </c>
       <c r="X16" s="14"/>
       <c r="Y16" s="15">
@@ -3693,8 +3699,8 @@
       </c>
       <c r="Z16" s="14"/>
       <c r="AA16" s="14"/>
-      <c r="AB16" s="13" t="b">
-        <v>0</v>
+      <c r="AB16" s="13" t="s">
+        <v>612</v>
       </c>
       <c r="AC16" s="14"/>
       <c r="AD16" s="13"/>
@@ -3765,8 +3771,8 @@
       <c r="V17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W17" s="13" t="b">
-        <v>1</v>
+      <c r="W17" s="13" t="s">
+        <v>611</v>
       </c>
       <c r="X17" s="14"/>
       <c r="Y17" s="15">
@@ -3774,8 +3780,8 @@
       </c>
       <c r="Z17" s="14"/>
       <c r="AA17" s="14"/>
-      <c r="AB17" s="13" t="b">
-        <v>0</v>
+      <c r="AB17" s="13" t="s">
+        <v>612</v>
       </c>
       <c r="AC17" s="14"/>
       <c r="AD17" s="13"/>
@@ -3846,8 +3852,8 @@
       <c r="V18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W18" s="13" t="b">
-        <v>1</v>
+      <c r="W18" s="13" t="s">
+        <v>611</v>
       </c>
       <c r="X18" s="14"/>
       <c r="Y18" s="15">
@@ -3855,8 +3861,8 @@
       </c>
       <c r="Z18" s="14"/>
       <c r="AA18" s="14"/>
-      <c r="AB18" s="13" t="b">
-        <v>0</v>
+      <c r="AB18" s="13" t="s">
+        <v>612</v>
       </c>
       <c r="AC18" s="14"/>
       <c r="AD18" s="13"/>
@@ -3927,8 +3933,8 @@
       <c r="V19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W19" s="13" t="b">
-        <v>1</v>
+      <c r="W19" s="13" t="s">
+        <v>611</v>
       </c>
       <c r="X19" s="14"/>
       <c r="Y19" s="15">
@@ -3936,8 +3942,8 @@
       </c>
       <c r="Z19" s="14"/>
       <c r="AA19" s="14"/>
-      <c r="AB19" s="13" t="b">
-        <v>0</v>
+      <c r="AB19" s="13" t="s">
+        <v>612</v>
       </c>
       <c r="AC19" s="14"/>
       <c r="AD19" s="13"/>
@@ -4008,8 +4014,8 @@
       <c r="V20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W20" s="13" t="b">
-        <v>1</v>
+      <c r="W20" s="13" t="s">
+        <v>611</v>
       </c>
       <c r="X20" s="14"/>
       <c r="Y20" s="15">
@@ -4017,8 +4023,8 @@
       </c>
       <c r="Z20" s="14"/>
       <c r="AA20" s="14"/>
-      <c r="AB20" s="13" t="b">
-        <v>0</v>
+      <c r="AB20" s="13" t="s">
+        <v>612</v>
       </c>
       <c r="AC20" s="14"/>
       <c r="AD20" s="13"/>
@@ -4089,8 +4095,8 @@
       <c r="V21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W21" s="13" t="b">
-        <v>1</v>
+      <c r="W21" s="13" t="s">
+        <v>611</v>
       </c>
       <c r="X21" s="14"/>
       <c r="Y21" s="15">
@@ -4098,8 +4104,8 @@
       </c>
       <c r="Z21" s="14"/>
       <c r="AA21" s="14"/>
-      <c r="AB21" s="13" t="b">
-        <v>0</v>
+      <c r="AB21" s="13" t="s">
+        <v>612</v>
       </c>
       <c r="AC21" s="14"/>
       <c r="AD21" s="13"/>
@@ -4170,8 +4176,8 @@
       <c r="V22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W22" s="13" t="b">
-        <v>1</v>
+      <c r="W22" s="13" t="s">
+        <v>611</v>
       </c>
       <c r="X22" s="14"/>
       <c r="Y22" s="15">
@@ -4179,8 +4185,8 @@
       </c>
       <c r="Z22" s="14"/>
       <c r="AA22" s="14"/>
-      <c r="AB22" s="13" t="b">
-        <v>0</v>
+      <c r="AB22" s="13" t="s">
+        <v>612</v>
       </c>
       <c r="AC22" s="14"/>
       <c r="AD22" s="13"/>
@@ -4251,8 +4257,8 @@
       <c r="V23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W23" s="13" t="b">
-        <v>1</v>
+      <c r="W23" s="13" t="s">
+        <v>611</v>
       </c>
       <c r="X23" s="14"/>
       <c r="Y23" s="15">
@@ -4260,8 +4266,8 @@
       </c>
       <c r="Z23" s="14"/>
       <c r="AA23" s="14"/>
-      <c r="AB23" s="13" t="b">
-        <v>0</v>
+      <c r="AB23" s="13" t="s">
+        <v>612</v>
       </c>
       <c r="AC23" s="14"/>
       <c r="AD23" s="13"/>
@@ -4332,8 +4338,8 @@
       <c r="V24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W24" s="13" t="b">
-        <v>1</v>
+      <c r="W24" s="13" t="s">
+        <v>611</v>
       </c>
       <c r="X24" s="14"/>
       <c r="Y24" s="15">
@@ -4341,8 +4347,8 @@
       </c>
       <c r="Z24" s="14"/>
       <c r="AA24" s="14"/>
-      <c r="AB24" s="13" t="b">
-        <v>0</v>
+      <c r="AB24" s="13" t="s">
+        <v>612</v>
       </c>
       <c r="AC24" s="14"/>
       <c r="AD24" s="13"/>
